--- a/abundance/appleDatabase.xlsx
+++ b/abundance/appleDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanlegg/Desktop/Abundant Apples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanlegg/Desktop/abundance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F625FE58-8984-7B4E-8A26-4A511B56D630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7EFE9D-EA7A-DC41-8067-F6D3E902FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{17B3DAD8-B0A9-0147-BAF0-6BC4F2C34849}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{17B3DAD8-B0A9-0147-BAF0-6BC4F2C34849}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="172">
   <si>
     <t>Breeds</t>
   </si>
@@ -534,6 +534,24 @@
   </si>
   <si>
     <t>(503) 982 9307</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>team@obrien-farms.com &lt;team@obrien-farms.com&gt;</t>
+  </si>
+  <si>
+    <t>Contacted?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>milman36@comcast.net</t>
   </si>
 </sst>
 </file>
@@ -896,10 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B826EAD-5131-9443-8CF3-AB6C2AB47C6F}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K28"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,7 +932,7 @@
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -947,8 +966,14 @@
       <c r="K1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -979,8 +1004,14 @@
       <c r="J2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1011,8 +1042,11 @@
       <c r="J3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1043,8 +1077,11 @@
       <c r="J4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1075,8 +1112,11 @@
       <c r="J5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1104,8 +1144,11 @@
       <c r="J6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1136,8 +1179,14 @@
       <c r="J7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1159,8 +1208,11 @@
       <c r="G8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1191,8 +1243,11 @@
       <c r="J9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1226,8 +1281,11 @@
       <c r="K10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1255,8 +1313,11 @@
       <c r="J11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1290,8 +1351,11 @@
       <c r="K12" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1323,7 +1387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1358,7 +1422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1393,7 +1457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>

--- a/abundance/appleDatabase.xlsx
+++ b/abundance/appleDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanlegg/Desktop/abundance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7EFE9D-EA7A-DC41-8067-F6D3E902FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B262DCE6-B598-DD4F-B1EA-5449A88BA512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{17B3DAD8-B0A9-0147-BAF0-6BC4F2C34849}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{17B3DAD8-B0A9-0147-BAF0-6BC4F2C34849}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="300">
   <si>
     <t>Breeds</t>
   </si>
@@ -552,6 +552,390 @@
   </si>
   <si>
     <t>milman36@comcast.net</t>
+  </si>
+  <si>
+    <t>A &amp; J Orchards</t>
+  </si>
+  <si>
+    <t>Hood River</t>
+  </si>
+  <si>
+    <t>4600 Kenwood Drive, Hood River, OR, 97031</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/4600+Kenwood+Dr,+Hood+River,+OR+97031/@45.6578234,-121.5826828,678m/data=!3m2!1e3!4b1!4m6!3m5!1s0x549608e0a394a12f:0xf0523353ce6a523!8m2!3d45.6578197!4d-121.5801079!16s%2Fg%2F11rhqtd2tt!5m1!1e3?entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(541) 386 1974</t>
+  </si>
+  <si>
+    <t>Poole Family Farms</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Poole+Family+Farms/@45.6462646,-121.5767597,925m/data=!3m1!1e3!4m6!3m5!1s0x54960900385804ff:0x58b875628776bb16!8m2!3d45.646671!4d-121.5743001!16s%2Fg%2F11w4tkykqd!5m1!1e3?entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>poolefruit@gmail.com</t>
+  </si>
+  <si>
+    <t>2669 Wheeler Rd, Hood River, OR, 97031</t>
+  </si>
+  <si>
+    <t>(541) 735 4512</t>
+  </si>
+  <si>
+    <t>https://poolefamily.farm/</t>
+  </si>
+  <si>
+    <t>['Gravenstein', 'Gala', 'Elstar', 'Honeycrisp', 'Ruby John', 'Jonagold', 'Valstar', 'Melrose', 'Ambrosia', 'Cameo', 'Golden Delicious', 'Red Delicious', 'Fuji', 'Newtown', 'Adams', 'Braeburn', 'Mutsu', 'Macintosh', 'Hanner', 'Empire']</t>
+  </si>
+  <si>
+    <t>McCurdy Farms</t>
+  </si>
+  <si>
+    <t>2080 Tucker Rd, Hood River, OR, 97031</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/McCurdy+Farms/@45.6622707,-121.547875,16.16z/data=!4m15!1m8!3m7!1s0x54960f2d81b6a94d:0xabc5311c371f8034!2s2080+Tucker+Rd,+Hood+River,+OR+97031!3b1!8m2!3d45.661948!4d-121.5458309!16s%2Fg%2F11fjtbxj77!3m5!1s0x54960f2d067bffb7:0xdfeb63a2724cd356!8m2!3d45.6625934!4d-121.5449062!16s%2Fg%2F1hc72nl6h!5m1!1e3?entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(541) 386 1628</t>
+  </si>
+  <si>
+    <t>mcfarms@gorge.net</t>
+  </si>
+  <si>
+    <t>['Gravenstein']</t>
+  </si>
+  <si>
+    <t>n-need breeds</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+Gorge+White+House/@45.6587351,-121.5226964,14.75z/data=!4m6!3m5!1s0x54960f404fbef857:0xd6197f840321ad2b!8m2!3d45.6578627!4d-121.5131224!16s%2Fg%2F1tgxhsfk!5m1!1e3?entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>2265 Highway 35, Hood River, OR, 97031</t>
+  </si>
+  <si>
+    <t>(541) 386 2828</t>
+  </si>
+  <si>
+    <t>info@thegorgewhitehouse.com</t>
+  </si>
+  <si>
+    <t>The Gorge White House</t>
+  </si>
+  <si>
+    <t>['Honeycrisp', 'Gala', 'Golden', 'Granny Smith']</t>
+  </si>
+  <si>
+    <t>https://www.thegorgewhitehouse.com/</t>
+  </si>
+  <si>
+    <t>Pearl's Place</t>
+  </si>
+  <si>
+    <t>1860 Highway 35, Hood River, OR, 97031</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Pearls+Place/@45.6696594,-121.5210253,15z/data=!4m15!1m8!3m7!1s0x54960f16e100960b:0xdde2b9b854179452!2s1860+OR-35,+Hood+River,+OR+97031!3b1!8m2!3d45.668734!4d-121.5150884!16s%2Fg%2F11hczwgrwj!3m5!1s0x54960f1748826beb:0xc82c2057e3a2ae3a!8m2!3d45.6679028!4d-121.5150706!16s%2Fg%2F1w455b5p!5m1!1e3?entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(541) 386 3888</t>
+  </si>
+  <si>
+    <t>https://pearlsplacefruit.com/</t>
+  </si>
+  <si>
+    <t>devon.wells@viewmontfruit.com</t>
+  </si>
+  <si>
+    <t>['Fuji', 'Gala', 'Golden Delicious', 'Granny Smith', 'Gravenstein', 'Honeycrisp', 'Jonagold', 'Newtown Pippin', 'Red Delicious', 'Sonata']</t>
+  </si>
+  <si>
+    <t>Sakura Ridge</t>
+  </si>
+  <si>
+    <t>5601 York Hill Drive, Hood River, OR, 97031</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sakura+Ridge+Farm+and+Lodge/@45.6631342,-121.6113671,15.6z/data=!4m9!3m8!1s0x54960905a5ecdd39:0x5e03c7d071b8258c!5m2!4m1!1i2!8m2!3d45.662109!4d-121.6077279!16s%2Fg%2F1tcwl8kd!5m1!1e3?entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(541) 386 2636</t>
+  </si>
+  <si>
+    <t>info@sakuraridge.com</t>
+  </si>
+  <si>
+    <t>https://www.sakuraridge.com/</t>
+  </si>
+  <si>
+    <t>['Honeycrisp', 'Heirloom', 'Red Crimson']</t>
+  </si>
+  <si>
+    <t>Hilda's Organic U-Pick</t>
+  </si>
+  <si>
+    <t>1519 Country Club Rd, Hood River, OR, 97031</t>
+  </si>
+  <si>
+    <t>https://www.hildasorganicupick.com/</t>
+  </si>
+  <si>
+    <t>(541) 490 8212</t>
+  </si>
+  <si>
+    <t>hildasorganicupick@yahoo.com</t>
+  </si>
+  <si>
+    <t>Windflower Farm</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>26285 Walker Road, Bend, OR, 97701</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Windflower+Farm+LLC/@44.0736688,-121.0323418,17z/data=!3m1!4b1!4m6!3m5!1s0x54b8dbefdc231795:0x7dced950c59be939!8m2!3d44.073665!4d-121.0297669!16s%2Fg%2F11bbrlnr4m!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(541) 678 3166</t>
+  </si>
+  <si>
+    <t>https://windflowerfarmbend.com/</t>
+  </si>
+  <si>
+    <t>gigi@windflowerfarmbend.com/</t>
+  </si>
+  <si>
+    <t>Sandoz Farm</t>
+  </si>
+  <si>
+    <t>The Dalles</t>
+  </si>
+  <si>
+    <t>https://sandozfarm.com/</t>
+  </si>
+  <si>
+    <t>sandozfarmstand@gmail.com</t>
+  </si>
+  <si>
+    <t>5755 Mill Creek Road, The Dalles, OR, 97058</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sandoz+Farm/@45.5645957,-121.2701638,15.32z/data=!4m6!3m5!1s0x54961d4402c424bd:0xf9ed921171aeb972!8m2!3d45.5654489!4d-121.2631976!16s%2Fg%2F1hc11mj7q!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(541) 296 3859</t>
+  </si>
+  <si>
+    <t>Hood River Organic</t>
+  </si>
+  <si>
+    <t>4780 Dee Hwy, Hood River, OR, 97031</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Hood+River+Organic/@45.5901629,-121.6318797,15.81z/data=!4m6!3m5!1s0x5495fd4472613ed3:0xda90699b50696e2b!8m2!3d45.590432!4d-121.627627!16s%2Fg%2F1th5c8v7!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(541) 354 2111</t>
+  </si>
+  <si>
+    <t>https://www.hoodriverorganic.com/</t>
+  </si>
+  <si>
+    <t>csa@hoodriverorganic.com</t>
+  </si>
+  <si>
+    <t>McCarthy Family Farm</t>
+  </si>
+  <si>
+    <t>8405 Clear Creek Road, Parkdale, OR, 97041</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/McCarthy+Family+Farm/@45.5560917,-121.6025963,15.89z/data=!4m6!3m5!1s0x5495ff21478fbe73:0x4522829992968072!8m2!3d45.5563547!4d-121.5989229!16s%2Fg%2F1tdgjzrv!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(541) 352 6476</t>
+  </si>
+  <si>
+    <t>https://mccarthyfamilyfarm.com/</t>
+  </si>
+  <si>
+    <t>info@mccarthyfamilyfarm.com</t>
+  </si>
+  <si>
+    <t>Dairy Creek Farm</t>
+  </si>
+  <si>
+    <t>Buxton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Granny Smith', 'Jonathan'] </t>
+  </si>
+  <si>
+    <t>23295 NW Hwy 47, Buxton, OR, 97109</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dairy+Creek+Farm+and+Produce/@45.6883847,-123.2004223,17.82z/data=!4m6!3m5!1s0x5494e35a5a153f8b:0xf6624ec3a5bd9f31!8m2!3d45.6883376!4d-123.1990809!16s%2Fg%2F1hc147fmm!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(503) 324 7819</t>
+  </si>
+  <si>
+    <t>https://www.dairycreekfarm.com/</t>
+  </si>
+  <si>
+    <t>DD@DairyCreekFarm.com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sparrowhawk+Farm+Stand/@45.5434504,-123.0162464,16.51z/data=!4m6!3m5!1s0x54951bf9373ccb27:0x33a672632c922fd!8m2!3d45.5436769!4d-123.013765!16s%2Fg%2F11h6yf2q_p!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Sparrowhawk Farm</t>
+  </si>
+  <si>
+    <t>Hillsboro</t>
+  </si>
+  <si>
+    <t>32720 NW Hornecker Rd, Hillsboro, OR, 97124</t>
+  </si>
+  <si>
+    <t>(503) 515 9585</t>
+  </si>
+  <si>
+    <t>https://www.sparrowhawkfarm.com/</t>
+  </si>
+  <si>
+    <t>sparrowhawkfarm18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kristof+Farms/@45.3834442,-123.1562701,15.68z/data=!4m6!3m5!1s0x54953dac4f376e47:0xd1c288936b159b97!8m2!3d45.3833849!4d-123.153384!16s%2Fg%2F11vyj3_jyh!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>23050 NW Roosevelt Dr, Yamhill, OR 97148</t>
+  </si>
+  <si>
+    <t>Kristof Farms</t>
+  </si>
+  <si>
+    <t>Yamhill</t>
+  </si>
+  <si>
+    <t>https://www.kristoffarms.com/eventsplus</t>
+  </si>
+  <si>
+    <t>info@kristoffarms.com</t>
+  </si>
+  <si>
+    <t>7924 SE Lake Rd, Milwaukie, OR</t>
+  </si>
+  <si>
+    <t>Justy's Produce and Flowers</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Justy's+Produce+%26+Flowers/@45.4219469,-122.5823443,16.86z/data=!4m6!3m5!1s0x549575bcb4d4c90f:0xb7ed00ee02c661d2!8m2!3d45.4213528!4d-122.5819826!16s%2Fg%2F1wzt229c!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Milwaukie</t>
+  </si>
+  <si>
+    <t>['Gravenstein', 'Jona Gold', 'Braeburn', 'Rome', 'Pink Lady', 'Gala']</t>
+  </si>
+  <si>
+    <t>(503) 659 4169</t>
+  </si>
+  <si>
+    <t>justysproduce@comcast.net</t>
+  </si>
+  <si>
+    <t>https://www.justysproduce.com/index.html</t>
+  </si>
+  <si>
+    <t>Fiala Farms</t>
+  </si>
+  <si>
+    <t>21231 SW Johnson Rd, West Linn, OR, 97068</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Fiala+Farms/@45.3715058,-122.6915933,17z/data=!4m15!1m8!3m7!1s0x549573cb7d954a73:0x6d61fe6607915635!2s21231+SW+Johnson+Rd,+West+Linn,+OR+97068!3b1!8m2!3d45.3715021!4d-122.6890184!16s%2Fg%2F11jk33dgs2!3m5!1s0x549573cb5ccca36b:0x969e8b982926967c!8m2!3d45.3714738!4d-122.6909132!16s%2Fg%2F11cmq_c4rk!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>West Linn</t>
+  </si>
+  <si>
+    <t>https://www.fialafarms.com/</t>
+  </si>
+  <si>
+    <t>fialafarms@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.ourtable.us/</t>
+  </si>
+  <si>
+    <t>13390 SW Morgan Road, Sherwood, OR, 97140</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Our+Table+Cooperative/@45.3374653,-122.8167305,16.72z/data=!4m6!3m5!1s0x54956c38760450a9:0xf4e2d6c4c8201f6d!8m2!3d45.3371753!4d-122.8145616!16s%2Fg%2F12hlgn1n0!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(503) 217 4304</t>
+  </si>
+  <si>
+    <t>(971) 777 3727</t>
+  </si>
+  <si>
+    <t>Our Table Cooperative</t>
+  </si>
+  <si>
+    <t>sales@ourtable.us</t>
+  </si>
+  <si>
+    <t>Morning Shade Farm</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Morning+Shade+Farm/@45.1759295,-122.6967679,17z/data=!3m1!4b1!4m6!3m5!1s0x5495614819319b63:0x59eb6954c5d52213!8m2!3d45.1759257!4d-122.694193!16s%2Fg%2F1tflm45s!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>8345 S. Barnards Rd, Canby, OR, 97013</t>
+  </si>
+  <si>
+    <t>Canby</t>
+  </si>
+  <si>
+    <t>['Gold Rush', 'Heralred', 'Wynootchie', 'Gravenstein']</t>
+  </si>
+  <si>
+    <t>(503) 651 2622</t>
+  </si>
+  <si>
+    <t>https://www.morningshadefarm.com/home/</t>
+  </si>
+  <si>
+    <t>jimgeiselman@canby.com</t>
+  </si>
+  <si>
+    <t>16751 Willamina Creek Rd, Willamina, OR, 97396</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Mama+Tee's+Farm/@45.1365484,-123.4910376,16.83z/data=!4m6!3m5!1s0x54eab67de4f57569:0x8ffe7d7fd8c2f138!8m2!3d45.1363563!4d-123.4883016!16s%2Fg%2F11bxg026wd!5m1!1e3?authuser=0&amp;entry=ttu&amp;g_ep=EgoyMDI0MDgyOC4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Mama Tee's Farmstead</t>
+  </si>
+  <si>
+    <t>Willamina</t>
+  </si>
+  <si>
+    <t>(510) 323 3699</t>
+  </si>
+  <si>
+    <t>https://mamateesfarm.com/</t>
+  </si>
+  <si>
+    <t>mamateesfarm@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -596,9 +980,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -914,11 +1303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B826EAD-5131-9443-8CF3-AB6C2AB47C6F}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,7 +1318,9 @@
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -957,16 +1348,16 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="M1" t="s">
@@ -998,13 +1389,13 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>84</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>167</v>
       </c>
       <c r="M2" t="s">
@@ -1036,7 +1427,7 @@
       <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
@@ -1071,7 +1462,7 @@
       <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J4" t="s">
@@ -1106,7 +1497,7 @@
       <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J5" t="s">
@@ -1173,13 +1564,13 @@
       <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>171</v>
       </c>
       <c r="M7" t="s">
@@ -1237,7 +1628,7 @@
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J9" t="s">
@@ -1272,13 +1663,13 @@
       <c r="H10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M10" t="s">
@@ -1307,7 +1698,7 @@
       <c r="H11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J11" t="s">
@@ -1342,13 +1733,13 @@
       <c r="H12" t="s">
         <v>65</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="J12" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M12" t="s">
@@ -1377,13 +1768,13 @@
       <c r="H13" t="s">
         <v>72</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="J13" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1412,13 +1803,13 @@
       <c r="H14" t="s">
         <v>78</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1447,13 +1838,13 @@
       <c r="H15" t="s">
         <v>88</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J15" t="s">
         <v>89</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1479,17 +1870,17 @@
       <c r="H16" t="s">
         <v>95</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J16" t="s">
         <v>97</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1511,14 +1902,14 @@
       <c r="H17" t="s">
         <v>102</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1540,17 +1931,17 @@
       <c r="H18" t="s">
         <v>106</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="J18" t="s">
         <v>107</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1572,14 +1963,14 @@
       <c r="H19" t="s">
         <v>112</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>111</v>
       </c>
       <c r="J19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1601,17 +1992,17 @@
       <c r="H20" t="s">
         <v>116</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>117</v>
       </c>
       <c r="J20" t="s">
         <v>118</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1633,17 +2024,17 @@
       <c r="H21" t="s">
         <v>125</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J21" t="s">
         <v>127</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1665,17 +2056,17 @@
       <c r="H22" t="s">
         <v>129</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>130</v>
       </c>
       <c r="J22" t="s">
         <v>131</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1697,17 +2088,17 @@
       <c r="H23" t="s">
         <v>135</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J23" t="s">
         <v>137</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1732,17 +2123,17 @@
       <c r="H24" t="s">
         <v>140</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J24" t="s">
         <v>142</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1764,17 +2155,17 @@
       <c r="H25" t="s">
         <v>147</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>148</v>
       </c>
       <c r="J25" t="s">
         <v>149</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1796,17 +2187,17 @@
       <c r="H26" t="s">
         <v>153</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>154</v>
       </c>
       <c r="J26" t="s">
         <v>155</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1828,14 +2219,14 @@
       <c r="H27" t="s">
         <v>158</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1857,66 +2248,817 @@
       <c r="H28" t="s">
         <v>163</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29">
+        <v>45.657895608479002</v>
+      </c>
+      <c r="D29">
+        <v>-121.580068254875</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30">
+        <v>45.646791469592699</v>
+      </c>
+      <c r="D30">
+        <v>-121.57327692378399</v>
+      </c>
+      <c r="E30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31">
+        <v>45.662812537355997</v>
+      </c>
+      <c r="D31">
+        <v>-121.544161049536</v>
+      </c>
+      <c r="E31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32">
+        <v>45.658610319343197</v>
+      </c>
+      <c r="D32">
+        <v>-121.508061702137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33">
+        <v>45.668298827939701</v>
+      </c>
+      <c r="D33">
+        <v>-121.51302359358</v>
+      </c>
+      <c r="E33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34">
+        <v>45.662650969527498</v>
+      </c>
+      <c r="D34">
+        <v>-121.606089204</v>
+      </c>
+      <c r="E34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35">
+        <v>45.677822107462703</v>
+      </c>
+      <c r="D35">
+        <v>-121.572331039389</v>
+      </c>
+      <c r="E35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" t="s">
+        <v>215</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36">
+        <v>44.073757468099103</v>
+      </c>
+      <c r="D36">
+        <v>-121.02911244433901</v>
+      </c>
+      <c r="E36" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37">
+        <v>45.565982588434501</v>
+      </c>
+      <c r="D37">
+        <v>-121.261240516027</v>
+      </c>
+      <c r="E37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38">
+        <v>45.590686196213703</v>
+      </c>
+      <c r="D38">
+        <v>-121.625995027369</v>
+      </c>
+      <c r="E38" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J38" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39">
+        <v>45.556498671296801</v>
+      </c>
+      <c r="D39">
+        <v>-121.597966964086</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J39" t="s">
+        <v>240</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40">
+        <v>45.688412240736</v>
+      </c>
+      <c r="D40">
+        <v>-123.198891440818</v>
+      </c>
+      <c r="E40" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41">
+        <v>45.543929884292297</v>
+      </c>
+      <c r="D41">
+        <v>-123.01305643372601</v>
+      </c>
+      <c r="E41" t="s">
+        <v>253</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>255</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42">
+        <v>45.383792256974097</v>
+      </c>
+      <c r="D42">
+        <v>-123.152385779274</v>
+      </c>
+      <c r="E42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>259</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43">
+        <v>45.421576491099103</v>
+      </c>
+      <c r="D43">
+        <v>-122.58165651915201</v>
+      </c>
+      <c r="E43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" t="s">
+        <v>264</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J43" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" t="s">
+        <v>271</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44">
+        <v>45.3716528125466</v>
+      </c>
+      <c r="D44">
+        <v>-122.690498982515</v>
+      </c>
+      <c r="E44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" t="s">
+        <v>273</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J44" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45">
+        <v>45.337341708123297</v>
+      </c>
+      <c r="D45">
+        <v>-122.813290917979</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>279</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J45" t="s">
+        <v>281</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46">
+        <v>45.1760391175048</v>
+      </c>
+      <c r="D46">
+        <v>-122.693474171274</v>
+      </c>
+      <c r="E46" t="s">
+        <v>288</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>289</v>
+      </c>
+      <c r="H46" t="s">
+        <v>287</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J46" t="s">
+        <v>290</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47">
+        <v>45.136458952478698</v>
+      </c>
+      <c r="D47">
+        <v>-123.487633716228</v>
+      </c>
+      <c r="E47" t="s">
+        <v>296</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>293</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" t="s">
+        <v>297</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/abundance/appleDatabase.xlsx
+++ b/abundance/appleDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanlegg/Desktop/abundance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B262DCE6-B598-DD4F-B1EA-5449A88BA512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F9F6C7-EF4E-EC44-ABE3-4AAF683CF43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{17B3DAD8-B0A9-0147-BAF0-6BC4F2C34849}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="307">
   <si>
     <t>Breeds</t>
   </si>
@@ -936,6 +936,27 @@
   </si>
   <si>
     <t>mamateesfarm@gmail.com</t>
+  </si>
+  <si>
+    <t>Beilke Family Farm</t>
+  </si>
+  <si>
+    <t>['Gala', 'Honeycrisp', 'Ruby Mac', 'Smoothie', 'Jonagold']</t>
+  </si>
+  <si>
+    <t>4925 Rockdale St NE, Salem, OR 97305</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Beilke+Family+Farm/@45.0487481,-122.9589111,13.96z/data=!4m6!3m5!1s0x549557975f5f8607:0xd2ca29d38342900!8m2!3d45.049593!4d-122.9571511!16s%2Fg%2F11b5pjd1k5!5m1!1e3?entry=ttu&amp;g_ep=EgoyMDI0MDkwMi4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>(503) 393 1077</t>
+  </si>
+  <si>
+    <t>https://www.beilkefamilyfarm.com/</t>
+  </si>
+  <si>
+    <t>beilkeff@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1305,9 +1326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B826EAD-5131-9443-8CF3-AB6C2AB47C6F}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B48" sqref="B48"/>
+      <selection pane="topRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2945,6 +2966,39 @@
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48">
+        <v>45.050645267309697</v>
+      </c>
+      <c r="D48">
+        <v>-122.954332824716</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>301</v>
+      </c>
+      <c r="H48" t="s">
+        <v>302</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J48" t="s">
+        <v>304</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
